--- a/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate-AAADebugMsg.xlsx
+++ b/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate-AAADebugMsg.xlsx
@@ -32,7 +32,7 @@
     <author>016437</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,12 +61,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="107">
   <si>
     <t>信号名</t>
   </si>
   <si>
     <t>报文名</t>
+  </si>
+  <si>
+    <t>报文帧类型-DBC枚举值
+(0:Standard-CAN
+ 1:Extended-CAN
+ 14:Standard-CANFD
+ 15:Extended-CANFD)</t>
   </si>
   <si>
     <t>报文ID</t>
@@ -151,6 +158,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -176,6 +188,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -192,6 +209,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -208,6 +230,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -224,6 +251,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -261,6 +293,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-APP</t>
     </r>
     <r>
@@ -277,6 +314,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-APP</t>
     </r>
     <r>
@@ -293,6 +335,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-Kernal</t>
     </r>
     <r>
@@ -309,6 +356,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-Kernal</t>
     </r>
     <r>
@@ -325,6 +377,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-Kernel</t>
     </r>
     <r>
@@ -341,6 +398,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC-VCU</t>
     </r>
     <r>
@@ -357,6 +419,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>KL30</t>
     </r>
     <r>
@@ -373,6 +440,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>KL15</t>
     </r>
     <r>
@@ -389,6 +461,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>KL15</t>
     </r>
     <r>
@@ -411,6 +488,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -427,6 +509,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -467,6 +554,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -483,6 +575,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -499,6 +596,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -515,6 +617,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -531,6 +638,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DCDC</t>
     </r>
     <r>
@@ -547,6 +659,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>RTHS</t>
     </r>
     <r>
@@ -563,6 +680,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>MAG</t>
     </r>
     <r>
@@ -579,6 +701,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Can</t>
     </r>
     <r>
@@ -595,6 +722,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>NM</t>
     </r>
     <r>
@@ -617,6 +749,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>预留</t>
     </r>
     <r>
@@ -645,6 +782,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>LVAPP</t>
     </r>
     <r>
@@ -673,6 +815,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>LVBOOT</t>
     </r>
     <r>
@@ -858,12 +1005,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1344,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -1356,6 +1503,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1363,9 +1513,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1381,17 +1528,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1945,36 +2086,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.1047619047619" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="11" width="14.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="37.8571428571429" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="11.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="15.1142857142857" customWidth="1"/>
-    <col min="17" max="17" width="12.9238095238095" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="23.8571428571429" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.5714285714286" customWidth="1"/>
+    <col min="10" max="12" width="14.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="37.8571428571429" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.8571428571429" customWidth="1"/>
+    <col min="17" max="17" width="15.1142857142857" customWidth="1"/>
+    <col min="18" max="18" width="12.9238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="80" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="103" customHeight="1" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1983,13 +2125,13 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2001,2113 +2143,2239 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="11">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>16</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>0.1</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="10">
+        <v>0</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10">
-        <v>0</v>
+      <c r="P2" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
+      <c r="G3" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
         <v>16</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>10</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>0.1</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="10">
+        <v>0</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="10">
-        <v>0</v>
+      <c r="P3" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="11">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
+      <c r="G4" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
         <v>26</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>8</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>0.1</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="10">
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="10">
-        <v>0</v>
+      <c r="P4" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
+      <c r="G5" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
         <v>34</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>12</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>0.1</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="10">
+        <v>0</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="10">
-        <v>0</v>
+      <c r="P5" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
         <v>46</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>10</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>0.1</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="10">
+        <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="10">
-        <v>0</v>
+      <c r="P6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="G7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
         <v>32</v>
       </c>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="14">
+        <v>0</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="14">
-        <v>1</v>
+      <c r="P7" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="Q7" s="14">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="G8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
         <v>32</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="15">
         <v>8</v>
       </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14">
+        <v>0</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="14">
-        <v>1</v>
+      <c r="P8" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="Q8" s="14">
+        <v>1</v>
+      </c>
+      <c r="R8" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:17">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
+      <c r="G9" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10">
+        <v>0</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="10">
-        <v>2</v>
+      <c r="P9" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q9" s="10">
         <v>2</v>
       </c>
+      <c r="R9" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11">
         <v>4</v>
       </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
       <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="10">
+        <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="10">
-        <v>2</v>
+      <c r="P10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q10" s="10">
         <v>2</v>
       </c>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11">
         <v>8</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>10</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
+      <c r="G11" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
         <v>6</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <v>8</v>
       </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
       <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="10">
+        <v>0</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="10">
-        <v>2</v>
+      <c r="P11" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q11" s="10">
         <v>2</v>
       </c>
+      <c r="R11" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="E12" s="11">
+      <c r="F12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
+      <c r="G12" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
         <v>14</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>4</v>
       </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
       <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="10">
+        <v>0</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="10">
-        <v>2</v>
+      <c r="P12" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q12" s="10">
         <v>2</v>
       </c>
+      <c r="R12" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11">
-        <v>10</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>4</v>
       </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
       <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="10">
+        <v>0</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="10">
-        <v>2</v>
+      <c r="P13" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q13" s="10">
         <v>2</v>
       </c>
+      <c r="R13" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="11">
         <v>8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
+      <c r="G14" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
         <v>22</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>8</v>
       </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
       <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="10">
+        <v>0</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="10">
-        <v>2</v>
+      <c r="P14" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q14" s="10">
         <v>2</v>
       </c>
+      <c r="R14" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" customFormat="1" spans="1:17">
+    <row r="15" customFormat="1" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
+      <c r="G15" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
         <v>30</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>8</v>
       </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
       <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="10">
+        <v>0</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="10">
-        <v>2</v>
+      <c r="P15" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="Q15" s="10">
         <v>2</v>
       </c>
+      <c r="R15" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" customFormat="1" ht="19" customHeight="1" spans="1:17">
-      <c r="A16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="15" t="s">
+    <row r="16" customFormat="1" ht="19" customHeight="1" spans="1:18">
+      <c r="A16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="E16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <v>8</v>
       </c>
-      <c r="J16" s="21">
+      <c r="K16" s="19">
         <v>0.1</v>
       </c>
-      <c r="K16" s="21">
-        <v>0</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="20">
-        <v>0</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>23</v>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="18">
+        <v>0</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="18">
         <v>3</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="R16" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:17">
-      <c r="A17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    <row r="17" customFormat="1" spans="1:18">
+      <c r="A17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="E17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
         <v>8</v>
       </c>
-      <c r="I17" s="21">
+      <c r="J17" s="19">
         <v>8</v>
       </c>
-      <c r="J17" s="21">
+      <c r="K17" s="19">
         <v>0.1</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="20">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="19" t="s">
         <v>23</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="18">
+        <v>0</v>
       </c>
       <c r="O17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="20">
+      <c r="P17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="18">
         <v>3</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="R17" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="E18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
         <v>16</v>
       </c>
-      <c r="I18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="20">
-        <v>0</v>
-      </c>
-      <c r="N18" s="14" t="s">
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>23</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="18">
+        <v>0</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="18">
         <v>3</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="R18" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="15" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="E19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
         <v>17</v>
       </c>
-      <c r="I19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21">
-        <v>1</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="20">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>23</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="18">
+        <v>0</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="18">
         <v>3</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="R19" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
         <v>10</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1</v>
+      <c r="G20" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
         <v>8</v>
       </c>
-      <c r="J20" s="11">
+      <c r="K20" s="11">
         <v>0.1</v>
       </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>23</v>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="10">
+        <v>0</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="10">
         <v>4</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="R20" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11">
         <v>10</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
+      <c r="G21" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <v>8</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>12</v>
       </c>
-      <c r="J21" s="11">
+      <c r="K21" s="11">
         <v>0.1</v>
       </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>23</v>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="10">
+        <v>0</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="10">
         <v>4</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="R21" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="11">
         <v>10</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
+      <c r="G22" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
         <v>20</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <v>16</v>
       </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
       <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="10">
+        <v>0</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="10">
         <v>4</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="R22" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="11">
         <v>10</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
+      <c r="G23" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
         <v>36</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>12</v>
       </c>
-      <c r="J23" s="11">
+      <c r="K23" s="11">
         <v>0.1</v>
       </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>23</v>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="10">
+        <v>0</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="10">
         <v>4</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="21" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19">
         <v>10</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="G24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
         <v>32</v>
       </c>
-      <c r="J24" s="21">
-        <v>1</v>
-      </c>
-      <c r="K24" s="21">
-        <v>0</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="20">
-        <v>0</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>23</v>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="19">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="18">
+        <v>0</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="18">
         <v>5</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="R24" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="21" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="19">
         <v>10</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="G25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
         <v>32</v>
       </c>
-      <c r="I25" s="21">
+      <c r="J25" s="19">
         <v>16</v>
       </c>
-      <c r="J25" s="21">
-        <v>1</v>
-      </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="20">
-        <v>0</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>23</v>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="18">
+        <v>0</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="18">
         <v>5</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="R25" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="11">
         <v>10</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
+      <c r="G26" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
         <v>8</v>
       </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
       <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="10">
+        <v>0</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="10">
         <v>6</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="11">
         <v>10</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
+      <c r="G27" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
         <v>8</v>
       </c>
-      <c r="I27" s="11">
-        <v>2</v>
-      </c>
       <c r="J27" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="10">
+        <v>0</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="10">
         <v>6</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="11">
         <v>10</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1</v>
+      <c r="G28" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
         <v>10</v>
       </c>
-      <c r="I28" s="11">
-        <v>2</v>
-      </c>
       <c r="J28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="10">
+        <v>0</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="10">
         <v>6</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11">
         <v>10</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
+      <c r="G29" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
         <v>12</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="11">
         <v>8</v>
       </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
       <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="10">
+        <v>0</v>
       </c>
       <c r="O29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="10">
         <v>6</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="11">
         <v>10</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1</v>
+      <c r="G30" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
         <v>20</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="11">
         <v>16</v>
       </c>
-      <c r="J30" s="11">
-        <v>1</v>
-      </c>
       <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="10">
+        <v>0</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="10">
         <v>6</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="21" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="19">
         <v>10</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="21">
-        <v>0</v>
-      </c>
-      <c r="I31" s="21">
+      <c r="G31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19">
         <v>8</v>
       </c>
-      <c r="J31" s="21">
-        <v>1</v>
-      </c>
-      <c r="K31" s="21">
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19">
         <v>-40</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="20">
-        <v>0</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>23</v>
+      <c r="M31" s="21"/>
+      <c r="N31" s="18">
+        <v>0</v>
       </c>
       <c r="O31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="25">
+      <c r="P31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="23">
         <v>7</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="R31" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:17">
-      <c r="A32" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="21" t="s">
+    <row r="32" customFormat="1" spans="1:18">
+      <c r="A32" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="19">
         <v>10</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="21">
+      <c r="G32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19">
         <v>8</v>
       </c>
-      <c r="I32" s="21">
+      <c r="J32" s="19">
         <v>8</v>
       </c>
-      <c r="J32" s="21">
-        <v>1</v>
-      </c>
-      <c r="K32" s="21">
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
         <v>-40</v>
       </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="20">
-        <v>0</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>23</v>
+      <c r="M32" s="21"/>
+      <c r="N32" s="18">
+        <v>0</v>
       </c>
       <c r="O32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="23">
         <v>7</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="R32" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="11">
         <v>10</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1</v>
+      <c r="G33" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
         <v>8</v>
       </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
       <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="10">
+        <v>0</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="10">
         <v>8</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="11">
         <v>10</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1</v>
+      <c r="G34" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="H34" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11">
         <v>8</v>
       </c>
       <c r="J34" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="10">
+        <v>0</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="10">
         <v>8</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="11">
         <v>10</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="11">
-        <v>1</v>
+      <c r="G35" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
         <v>16</v>
       </c>
-      <c r="I35" s="11">
+      <c r="J35" s="11">
         <v>8</v>
       </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
       <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="10">
+        <v>0</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="10">
         <v>8</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:17">
-      <c r="A36" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="21" t="s">
+    <row r="36" customHeight="1" spans="1:18">
+      <c r="A36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="18">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="19">
         <v>10</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="G36" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19">
         <v>8</v>
       </c>
-      <c r="J36" s="21">
-        <v>1</v>
-      </c>
-      <c r="K36" s="21">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="20">
-        <v>0</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>23</v>
+      <c r="K36" s="19">
+        <v>1</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="18">
+        <v>0</v>
       </c>
       <c r="O36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="18">
         <v>9</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="R36" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="16" customHeight="1" spans="1:17">
-      <c r="A37" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="21" t="s">
+    <row r="37" ht="16" customHeight="1" spans="1:18">
+      <c r="A37" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="19">
         <v>10</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="21">
+      <c r="G37" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
         <v>8</v>
       </c>
-      <c r="I37" s="21">
+      <c r="J37" s="19">
         <v>16</v>
       </c>
-      <c r="J37" s="21">
-        <v>1</v>
-      </c>
-      <c r="K37" s="21">
-        <v>0</v>
-      </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="20">
-        <v>0</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>23</v>
+      <c r="K37" s="19">
+        <v>1</v>
+      </c>
+      <c r="L37" s="19">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21"/>
+      <c r="N37" s="18">
+        <v>0</v>
       </c>
       <c r="O37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="18">
         <v>9</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="R37" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:17">
-      <c r="A38" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="21" t="s">
+    <row r="38" customHeight="1" spans="1:18">
+      <c r="A38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="19">
         <v>10</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="21">
+      <c r="G38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
         <v>24</v>
       </c>
-      <c r="I38" s="21">
+      <c r="J38" s="19">
         <v>32</v>
       </c>
-      <c r="J38" s="21">
-        <v>1</v>
-      </c>
-      <c r="K38" s="21">
-        <v>0</v>
-      </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="20">
-        <v>0</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>23</v>
+      <c r="K38" s="19">
+        <v>1</v>
+      </c>
+      <c r="L38" s="19">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21"/>
+      <c r="N38" s="18">
+        <v>0</v>
       </c>
       <c r="O38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="20">
+      <c r="P38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="18">
         <v>9</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="R38" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="11">
         <v>10</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
+      <c r="G39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
       </c>
       <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>32</v>
       </c>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
       <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="10">
-        <v>0</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="N39" s="10">
+        <v>0</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="10">
         <v>10</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="R39" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11">
         <v>10</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11">
+      <c r="G40" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11">
         <v>32</v>
       </c>
-      <c r="I40" s="11">
+      <c r="J40" s="11">
         <v>8</v>
       </c>
-      <c r="J40" s="11">
-        <v>1</v>
-      </c>
       <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="10">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="10">
+        <v>0</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="10">
         <v>10</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="R40" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="11">
         <v>10</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="G41" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11">
         <v>40</v>
       </c>
-      <c r="I41" s="11">
+      <c r="J41" s="11">
         <v>8</v>
       </c>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
       <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="10">
-        <v>0</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="10">
+        <v>0</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="10">
         <v>10</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="R41" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:17">
-      <c r="A42" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="21" t="s">
+    <row r="42" s="2" customFormat="1" spans="1:18">
+      <c r="A42" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="18">
+        <v>1</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="19">
         <v>10</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1</v>
-      </c>
-      <c r="H42" s="21">
-        <v>0</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="G42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
         <v>32</v>
       </c>
-      <c r="J42" s="21">
-        <v>1</v>
-      </c>
-      <c r="K42" s="21">
-        <v>0</v>
-      </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="20">
-        <v>0</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>23</v>
+      <c r="K42" s="19">
+        <v>1</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21"/>
+      <c r="N42" s="18">
+        <v>0</v>
       </c>
       <c r="O42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="18">
         <v>11</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="R42" s="14">
         <v>2</v>
       </c>
     </row>
@@ -4115,7 +4383,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D20:D42 K7:L8 D3:D6 D7:E7 D8 K17:L19 D2:E2 K2:K6 D16:E19" numberStoredAsText="1"/>
+    <ignoredError sqref="E16:F19 L2:L6 E2:F2 L17:M19 E8 E7:F7 E3:E6 L7:M8 E20:E42" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate-AAADebugMsg.xlsx
+++ b/WindowsFormsApplication/WindowsFormsApplication/Template/ExcelDbcDataTemplate-AAADebugMsg.xlsx
@@ -89,7 +89,7 @@
   </si>
   <si>
     <t>信号排列格式
-0：motorola
+0：motorola-lsb
 1：intel</t>
   </si>
   <si>
@@ -1005,12 +1005,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1491,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -1507,9 +1507,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2089,7 +2086,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2099,7 +2096,7 @@
     <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="23.8571428571429" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.8" customWidth="1"/>
     <col min="9" max="9" width="12.5714285714286" customWidth="1"/>
     <col min="10" max="12" width="14.1428571428571" customWidth="1"/>
     <col min="13" max="13" width="37.8571428571429" style="4" customWidth="1"/>
@@ -2131,7 +2128,7 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2146,10 +2143,10 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -2158,2224 +2155,2224 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>16</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>0.1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="10">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>10</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>16</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>10</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
         <v>26</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10">
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
         <v>34</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>12</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
         <v>46</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>10</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.1</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>32</v>
       </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="14">
-        <v>1</v>
-      </c>
-      <c r="R7" s="14">
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>10</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
         <v>32</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>8</v>
       </c>
-      <c r="K8" s="15">
-        <v>1</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="14">
-        <v>1</v>
-      </c>
-      <c r="R8" s="14">
+      <c r="Q8" s="13">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>10</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="10">
-        <v>2</v>
-      </c>
-      <c r="R9" s="10">
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>8</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>10</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10">
         <v>4</v>
       </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="10">
-        <v>2</v>
-      </c>
-      <c r="R10" s="10">
+      <c r="Q10" s="9">
+        <v>2</v>
+      </c>
+      <c r="R10" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>10</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
         <v>6</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>8</v>
       </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="10">
-        <v>2</v>
-      </c>
-      <c r="R11" s="10">
+      <c r="Q11" s="9">
+        <v>2</v>
+      </c>
+      <c r="R11" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>10</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
         <v>14</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>4</v>
       </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="s">
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="10">
-        <v>2</v>
-      </c>
-      <c r="R12" s="10">
+      <c r="Q12" s="9">
+        <v>2</v>
+      </c>
+      <c r="R12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>8</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10">
         <v>18</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>4</v>
       </c>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10" t="s">
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="10">
-        <v>2</v>
-      </c>
-      <c r="R13" s="10">
+      <c r="Q13" s="9">
+        <v>2</v>
+      </c>
+      <c r="R13" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>8</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>10</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
         <v>22</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>8</v>
       </c>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="10">
-        <v>2</v>
-      </c>
-      <c r="R14" s="10">
+      <c r="Q14" s="9">
+        <v>2</v>
+      </c>
+      <c r="R14" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:18">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>10</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
         <v>30</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>8</v>
       </c>
-      <c r="K15" s="11">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="10">
-        <v>2</v>
-      </c>
-      <c r="R15" s="10">
+      <c r="Q15" s="9">
+        <v>2</v>
+      </c>
+      <c r="R15" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="19" customHeight="1" spans="1:18">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
         <v>8</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>0.1</v>
       </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="18">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="17">
         <v>3</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:18">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
         <v>8</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <v>8</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <v>0.1</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="17">
         <v>3</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
         <v>16</v>
       </c>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19" t="s">
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="M18" s="20"/>
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="17">
         <v>3</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
         <v>17</v>
       </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14" t="s">
+      <c r="M19" s="20"/>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="17">
         <v>3</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>10</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
         <v>8</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>0.1</v>
       </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <v>4</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>10</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
         <v>8</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>12</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>0.1</v>
       </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <v>4</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>10</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
         <v>20</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>16</v>
       </c>
-      <c r="K22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="9">
         <v>4</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>10</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
         <v>36</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>12</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>0.1</v>
       </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10" t="s">
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <v>4</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>10</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="18">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
         <v>32</v>
       </c>
-      <c r="K24" s="19">
-        <v>1</v>
-      </c>
-      <c r="L24" s="19">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14" t="s">
+      <c r="K24" s="18">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="17">
         <v>5</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>10</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
         <v>32</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>16</v>
       </c>
-      <c r="K25" s="19">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="18">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="17">
         <v>5</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>10</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
         <v>8</v>
       </c>
-      <c r="K26" s="11">
-        <v>1</v>
-      </c>
-      <c r="L26" s="11">
-        <v>0</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10" t="s">
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q26" s="9">
         <v>6</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
         <v>8</v>
       </c>
-      <c r="J27" s="11">
-        <v>2</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="J27" s="10">
+        <v>2</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <v>6</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>10</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
         <v>10</v>
       </c>
-      <c r="J28" s="11">
-        <v>2</v>
-      </c>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="J28" s="10">
+        <v>2</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="9">
         <v>6</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>10</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
         <v>12</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <v>8</v>
       </c>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10" t="s">
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="9">
         <v>6</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>10</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
         <v>20</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>16</v>
       </c>
-      <c r="K30" s="11">
-        <v>1</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10" t="s">
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="9">
         <v>6</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>10</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H31" s="18">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
         <v>8</v>
       </c>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19">
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
         <v>-40</v>
       </c>
-      <c r="M31" s="21"/>
-      <c r="N31" s="18">
-        <v>0</v>
-      </c>
-      <c r="O31" s="14" t="s">
+      <c r="M31" s="20"/>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="22">
         <v>7</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:18">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="18">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>10</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="18">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18">
         <v>8</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>8</v>
       </c>
-      <c r="K32" s="19">
-        <v>1</v>
-      </c>
-      <c r="L32" s="19">
+      <c r="K32" s="18">
+        <v>1</v>
+      </c>
+      <c r="L32" s="18">
         <v>-40</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="18">
-        <v>0</v>
-      </c>
-      <c r="O32" s="14" t="s">
+      <c r="M32" s="20"/>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="22">
         <v>7</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>10</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
         <v>8</v>
       </c>
-      <c r="K33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="10" t="s">
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="10" t="s">
+      <c r="P33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="9">
         <v>8</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="10">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>10</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
         <v>8</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>8</v>
       </c>
-      <c r="K34" s="11">
-        <v>1</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10" t="s">
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="9">
         <v>8</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="10">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>10</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="11">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
         <v>16</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="10">
         <v>8</v>
       </c>
-      <c r="K35" s="11">
-        <v>1</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10" t="s">
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="10" t="s">
+      <c r="P35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="9">
         <v>8</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="18">
-        <v>1</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>10</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="18">
-        <v>1</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
+      <c r="H36" s="17">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
         <v>8</v>
       </c>
-      <c r="K36" s="19">
-        <v>1</v>
-      </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="18">
-        <v>0</v>
-      </c>
-      <c r="O36" s="14" t="s">
+      <c r="K36" s="18">
+        <v>1</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="20"/>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="17">
         <v>9</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:18">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="18">
-        <v>1</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>10</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="18">
-        <v>1</v>
-      </c>
-      <c r="I37" s="19">
+      <c r="H37" s="17">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18">
         <v>8</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>16</v>
       </c>
-      <c r="K37" s="19">
-        <v>1</v>
-      </c>
-      <c r="L37" s="19">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="14" t="s">
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="17">
         <v>9</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="18">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <v>10</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="18">
-        <v>1</v>
-      </c>
-      <c r="I38" s="19">
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
         <v>24</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="18">
         <v>32</v>
       </c>
-      <c r="K38" s="19">
-        <v>1</v>
-      </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="18">
-        <v>0</v>
-      </c>
-      <c r="O38" s="14" t="s">
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="17">
         <v>9</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="10">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>10</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
         <v>32</v>
       </c>
-      <c r="K39" s="11">
-        <v>1</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="10">
-        <v>0</v>
-      </c>
-      <c r="O39" s="10" t="s">
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="10" t="s">
+      <c r="P39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <v>10</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>10</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="10">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11">
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
         <v>32</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>8</v>
       </c>
-      <c r="K40" s="11">
-        <v>1</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="10">
-        <v>0</v>
-      </c>
-      <c r="O40" s="10" t="s">
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="P40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="9">
         <v>10</v>
       </c>
-      <c r="R40" s="10">
+      <c r="R40" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="10">
-        <v>1</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>10</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="10">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10">
         <v>40</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>8</v>
       </c>
-      <c r="K41" s="11">
-        <v>1</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="10">
-        <v>0</v>
-      </c>
-      <c r="O41" s="10" t="s">
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="10" t="s">
+      <c r="P41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <v>10</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:18">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="18">
-        <v>1</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>10</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="18">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19">
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
         <v>32</v>
       </c>
-      <c r="K42" s="19">
-        <v>1</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="18">
-        <v>0</v>
-      </c>
-      <c r="O42" s="14" t="s">
+      <c r="K42" s="18">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18">
+        <v>0</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="P42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="17">
         <v>11</v>
       </c>
-      <c r="R42" s="14">
+      <c r="R42" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4383,7 +4380,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E16:F19 L2:L6 E2:F2 L17:M19 E8 E7:F7 E3:E6 L7:M8 E20:E42" numberStoredAsText="1"/>
+    <ignoredError sqref="E20:E42 L7:M8 E3:E6 E7:F7 E8 L17:M19 E2:F2 L2:L6 E16:F19" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
